--- a/Lesson7/LITHUYETBA7.xlsx
+++ b/Lesson7/LITHUYETBA7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t xml:space="preserve">Biến là gì </t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>trong js so sánh giống nhau (true nếu cùng giá trị và kiểu dữ liệu)</t>
+  </si>
+  <si>
+    <t>6. Objiect</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,9 +376,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +407,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -732,22 +738,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,88 +768,88 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -859,26 +865,26 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -907,139 +913,146 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
+    <row r="37" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>7</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
         <v>7.1</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
         <v>7.2</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
         <v>7.3</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
         <v>7.4</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
         <v>7.5</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+    <row r="45" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
         <v>7.6</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="10" t="s">
+    <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Lesson7/LITHUYETBA7.xlsx
+++ b/Lesson7/LITHUYETBA7.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bai7" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -1074,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
